--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3035.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3035.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.135828815532411</v>
+        <v>0.7212023138999939</v>
       </c>
       <c r="B1">
-        <v>-1</v>
+        <v>1.873716235160828</v>
       </c>
       <c r="C1">
-        <v>-1</v>
+        <v>6.667419910430908</v>
       </c>
       <c r="D1">
-        <v>-1</v>
+        <v>1.591243982315063</v>
       </c>
       <c r="E1">
-        <v>1.207391434161224</v>
+        <v>0.9138869047164917</v>
       </c>
     </row>
   </sheetData>
